--- a/text_helper/text.xlsx
+++ b/text_helper/text.xlsx
@@ -41,7 +41,7 @@
     <t>DIA_OPEN</t>
   </si>
   <si>
-    <t>Hey there! I'm Professor Fennel. As you can see, I'm a scientist. In fact, the subject I'm researching is Trainers! My dream is to collect save files of various trainers, but I haven't had any breakthroughs yet... So in the meantime, I've been working on a different project with one of my old friends! In my home region, there's a location that can make a Pokémon's dreams into reality. This means that any other Pokémon they meet in their dreams become real! That's fantastic, but my goal is to do the same- just with a trainer's dream instead! That's why I need your help! I want to bring as many Pokémon out of your dreams as possible! There's just over 250 Pokémon I want to catalogue in my Dream PokéDex- or Dream Dex for short. But I'll let you keep any Pokémon- they're from your dreams after all! One last note, save data backups are recommended- just on the off chance that something goes wrong! I think that's everything... whenever you're ready to start, just let me know!</t>
+    <t>Hey there! I'm Professor Fennel. As you can see, I'm a scientist. In fact, the subject I'm researching is Trainers! My dream is to collect save files of various trainers, but I haven't had any breakthroughs yet... So in the meantime, I've been working on a different project with one of my old friends! In my home region, there's a location that can make a Pokémon's dreams into reality. This means that any other Pokémon they meet in their dreams become real! That's fantastic, but my goal is to do the same- just with a trainer's dream instead! That's why I need your help! I want to bring as many Pokémon out of your dreams as possible! There's just over 250 Pokémon I want to catalogue in my Dream PokéDex- or Dream Dex for short. But I'll let you keep any Pokémon- they're from your dreams after all! One last note, save data backups are recommended- just on the off chance that something goes wrong!Ň I think that's everything... whenever you're ready to start, just let me know!</t>
   </si>
   <si>
     <t>DIA_E4</t>
